--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-observation-vitalsigns.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-observation-vitalsigns.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="525">
   <si>
     <t>Property</t>
   </si>
@@ -599,9 +599,6 @@
   </si>
   <si>
     <t>Observation.category</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -3719,7 +3716,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>82</v>
@@ -3734,19 +3731,19 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -3775,20 +3772,20 @@
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>187</v>
@@ -3815,10 +3812,10 @@
         <v>83</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
@@ -3826,13 +3823,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>83</v>
@@ -3854,19 +3851,19 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -3895,7 +3892,7 @@
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
@@ -3937,10 +3934,10 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -3948,10 +3945,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3974,13 +3971,13 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4031,7 +4028,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4055,7 +4052,7 @@
         <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>83</v>
@@ -4066,10 +4063,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4098,7 +4095,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4139,19 +4136,19 @@
         <v>83</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC18" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AD18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4175,7 +4172,7 @@
         <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4186,10 +4183,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4212,19 +4209,19 @@
         <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4273,7 +4270,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4294,10 +4291,10 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4308,10 +4305,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4334,13 +4331,13 @@
         <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4391,7 +4388,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4415,7 +4412,7 @@
         <v>83</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4426,10 +4423,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4458,7 +4455,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4499,19 +4496,19 @@
         <v>83</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AC21" t="s" s="2">
+      <c r="AD21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4535,7 +4532,7 @@
         <v>83</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4546,10 +4543,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4575,65 +4572,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4654,10 +4651,10 @@
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -4668,10 +4665,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4694,16 +4691,16 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4753,7 +4750,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4774,10 +4771,10 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
@@ -4788,10 +4785,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4817,63 +4814,63 @@
         <v>114</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4894,10 +4891,10 @@
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>83</v>
@@ -4908,10 +4905,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4934,17 +4931,17 @@
         <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4993,7 +4990,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5014,10 +5011,10 @@
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>83</v>
@@ -5028,10 +5025,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5054,19 +5051,19 @@
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5115,7 +5112,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5136,10 +5133,10 @@
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
@@ -5150,10 +5147,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5176,19 +5173,19 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5237,7 +5234,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5258,10 +5255,10 @@
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
@@ -5272,20 +5269,20 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>82</v>
@@ -5300,19 +5297,19 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5341,7 +5338,7 @@
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5383,10 +5380,10 @@
         <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
@@ -5394,10 +5391,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5420,13 +5417,13 @@
         <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5477,7 +5474,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5501,7 +5498,7 @@
         <v>83</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -5512,10 +5509,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5544,7 +5541,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -5585,19 +5582,19 @@
         <v>83</v>
       </c>
       <c r="AB30" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC30" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AC30" t="s" s="2">
+      <c r="AD30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5621,7 +5618,7 @@
         <v>83</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -5632,10 +5629,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5658,19 +5655,19 @@
         <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5719,7 +5716,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5740,10 +5737,10 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5754,10 +5751,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5780,13 +5777,13 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5837,7 +5834,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5861,7 +5858,7 @@
         <v>83</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -5872,10 +5869,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5904,7 +5901,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -5945,19 +5942,19 @@
         <v>83</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC33" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AC33" t="s" s="2">
+      <c r="AD33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5981,7 +5978,7 @@
         <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -5992,10 +5989,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6021,23 +6018,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>83</v>
@@ -6079,7 +6076,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6100,10 +6097,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6114,10 +6111,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6140,16 +6137,16 @@
         <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6199,7 +6196,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6220,10 +6217,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6234,10 +6231,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6263,14 +6260,14 @@
         <v>114</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6319,7 +6316,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6340,10 +6337,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6354,10 +6351,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6380,17 +6377,17 @@
         <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6439,7 +6436,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6460,10 +6457,10 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6474,10 +6471,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6500,19 +6497,19 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6561,7 +6558,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6582,10 +6579,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6596,10 +6593,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6622,19 +6619,19 @@
         <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -6683,7 +6680,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6704,10 +6701,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6718,14 +6715,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6744,19 +6741,19 @@
         <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -6785,7 +6782,7 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -6803,7 +6800,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>94</v>
@@ -6818,30 +6815,30 @@
         <v>106</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AO40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6864,19 +6861,19 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6925,7 +6922,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6940,19 +6937,19 @@
         <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>83</v>
@@ -6960,10 +6957,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6986,16 +6983,16 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7045,7 +7042,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7066,13 +7063,13 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>83</v>
@@ -7080,14 +7077,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7106,19 +7103,19 @@
         <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7167,7 +7164,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7182,19 +7179,19 @@
         <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>83</v>
@@ -7202,14 +7199,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7228,19 +7225,19 @@
         <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7289,7 +7286,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7304,19 +7301,19 @@
         <v>106</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>83</v>
@@ -7324,10 +7321,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7350,16 +7347,16 @@
         <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7409,7 +7406,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7430,13 +7427,13 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
@@ -7444,10 +7441,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7470,19 +7467,19 @@
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7531,7 +7528,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7546,19 +7543,19 @@
         <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>83</v>
@@ -7566,10 +7563,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7592,19 +7589,19 @@
         <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7653,7 +7650,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7662,7 +7659,7 @@
         <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>106</v>
@@ -7671,27 +7668,27 @@
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP47" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7714,19 +7711,19 @@
         <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7751,14 +7748,14 @@
         <v>83</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y48" t="s" s="2">
+      <c r="Z48" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>83</v>
       </c>
@@ -7775,7 +7772,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7784,7 +7781,7 @@
         <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>106</v>
@@ -7799,7 +7796,7 @@
         <v>137</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7810,14 +7807,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7836,19 +7833,19 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -7873,14 +7870,14 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
       </c>
@@ -7897,7 +7894,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7915,27 +7912,27 @@
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7958,19 +7955,19 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8019,7 +8016,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8040,10 +8037,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8054,10 +8051,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8080,16 +8077,16 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8115,14 +8112,14 @@
         <v>83</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>83</v>
       </c>
@@ -8139,7 +8136,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8157,27 +8154,27 @@
         <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP51" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>405</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8200,19 +8197,19 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8237,14 +8234,14 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
       </c>
@@ -8261,7 +8258,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8282,10 +8279,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8296,10 +8293,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8322,16 +8319,16 @@
         <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8381,7 +8378,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8399,27 +8396,27 @@
         <v>83</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP53" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>421</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8442,16 +8439,16 @@
         <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8501,7 +8498,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8519,27 +8516,27 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8562,19 +8559,19 @@
         <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8623,7 +8620,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8635,19 +8632,19 @@
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -8658,10 +8655,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8684,13 +8681,13 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8741,7 +8738,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8765,7 +8762,7 @@
         <v>83</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8776,10 +8773,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8808,7 +8805,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -8861,7 +8858,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8885,7 +8882,7 @@
         <v>83</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
@@ -8896,14 +8893,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8925,10 +8922,10 @@
         <v>140</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>143</v>
@@ -8983,7 +8980,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9018,10 +9015,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9044,13 +9041,13 @@
         <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9101,7 +9098,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9110,7 +9107,7 @@
         <v>94</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>106</v>
@@ -9122,10 +9119,10 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9136,10 +9133,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9162,13 +9159,13 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9219,7 +9216,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9228,7 +9225,7 @@
         <v>94</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>106</v>
@@ -9240,10 +9237,10 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
@@ -9254,10 +9251,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9280,19 +9277,19 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9320,11 +9317,11 @@
         <v>118</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
       </c>
@@ -9341,7 +9338,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9359,13 +9356,13 @@
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AM61" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AN61" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -9376,10 +9373,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9402,19 +9399,19 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9439,14 +9436,14 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>471</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
       </c>
@@ -9463,7 +9460,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9481,13 +9478,13 @@
         <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AM62" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AN62" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9498,10 +9495,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9524,17 +9521,17 @@
         <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -9583,7 +9580,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9607,7 +9604,7 @@
         <v>83</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -9618,10 +9615,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9644,13 +9641,13 @@
         <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9701,7 +9698,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9722,10 +9719,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -9736,10 +9733,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9762,16 +9759,16 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9821,7 +9818,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9842,10 +9839,10 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -9856,10 +9853,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9882,16 +9879,16 @@
         <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9941,7 +9938,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -9962,10 +9959,10 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -9976,10 +9973,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10002,19 +9999,19 @@
         <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10063,7 +10060,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10084,10 +10081,10 @@
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10098,10 +10095,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10124,13 +10121,13 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10181,7 +10178,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10205,7 +10202,7 @@
         <v>83</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10216,10 +10213,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10248,7 +10245,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10301,7 +10298,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10325,7 +10322,7 @@
         <v>83</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
@@ -10336,14 +10333,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10365,10 +10362,10 @@
         <v>140</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>143</v>
@@ -10423,7 +10420,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10458,10 +10455,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10484,19 +10481,19 @@
         <v>95</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="O71" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -10525,7 +10522,7 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>83</v>
@@ -10543,7 +10540,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>94</v>
@@ -10561,16 +10558,16 @@
         <v>83</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>83</v>
@@ -10578,10 +10575,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10604,19 +10601,19 @@
         <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="N72" t="s" s="2">
-        <v>510</v>
-      </c>
       <c r="O72" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
@@ -10665,7 +10662,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10683,27 +10680,27 @@
         <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10726,19 +10723,19 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="N73" t="s" s="2">
-        <v>515</v>
-      </c>
       <c r="O73" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
@@ -10763,14 +10760,14 @@
         <v>83</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y73" t="s" s="2">
+      <c r="Z73" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>83</v>
       </c>
@@ -10787,7 +10784,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -10796,7 +10793,7 @@
         <v>94</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>106</v>
@@ -10811,7 +10808,7 @@
         <v>137</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -10822,14 +10819,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10848,19 +10845,19 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -10885,14 +10882,14 @@
         <v>83</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Y74" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Z74" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AA74" t="s" s="2">
         <v>83</v>
       </c>
@@ -10909,7 +10906,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -10927,27 +10924,27 @@
         <v>83</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AN74" t="s" s="2">
+      <c r="AO74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP74" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10973,16 +10970,16 @@
         <v>84</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11031,7 +11028,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11052,10 +11049,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
